--- a/config_aomi/fish3d_map_config.xlsx
+++ b/config_aomi/fish3d_map_config.xlsx
@@ -246,10 +246,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>12倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -631,10 +627,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew013</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FishNew028</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -825,9 +817,6 @@
     <t>小旗鱼</t>
   </si>
   <si>
-    <t>小水母</t>
-  </si>
-  <si>
     <t>锯齿鲨</t>
   </si>
   <si>
@@ -960,148 +949,161 @@
     <t>3dby_icon_yu48</t>
   </si>
   <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu59</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu60</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu61</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu62</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu64</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu65</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu63</t>
+  </si>
+  <si>
+    <t>龙虾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3dby_icon_yu34</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu59</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu60</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu61</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu62</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu64</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu65</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu63</t>
-  </si>
-  <si>
-    <t>龙虾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1606,9 +1608,9 @@
   <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1642,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1651,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
@@ -1661,7 +1663,7 @@
         <v>37</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1678,17 +1680,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B16" si="0">B3+2</f>
         <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>39</v>
@@ -1705,10 +1706,10 @@
         <v>51</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1717,17 +1718,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>39</v>
@@ -1756,7 +1756,6 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C4" s="3">
@@ -1779,16 +1778,16 @@
         <v>36</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1797,7 +1796,6 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C5" s="3">
@@ -1807,7 +1805,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>39</v>
@@ -1820,13 +1818,13 @@
         <v>36</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M5" s="18" t="s">
         <v>22</v>
@@ -1838,17 +1836,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>39</v>
@@ -1861,13 +1858,13 @@
         <v>36</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>19</v>
@@ -1879,14 +1876,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
@@ -1902,16 +1898,16 @@
         <v>36</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1920,7 +1916,6 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C8" s="3">
@@ -1930,7 +1925,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>39</v>
@@ -1943,13 +1938,13 @@
         <v>36</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>53</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>14</v>
@@ -1961,17 +1956,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>39</v>
@@ -1988,10 +1982,10 @@
         <v>54</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -2001,17 +1995,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>39</v>
@@ -2024,16 +2017,16 @@
         <v>38</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2042,17 +2035,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>39</v>
@@ -2066,10 +2058,10 @@
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>15</v>
@@ -2081,17 +2073,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>39</v>
@@ -2105,13 +2096,13 @@
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2121,17 +2112,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>39</v>
@@ -2144,16 +2134,16 @@
         <v>36</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2163,17 +2153,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>39</v>
@@ -2187,10 +2176,10 @@
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M14" s="18" t="s">
         <v>23</v>
@@ -2202,17 +2191,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>39</v>
@@ -2225,16 +2213,16 @@
         <v>36</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2243,17 +2231,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>39</v>
@@ -2266,13 +2253,13 @@
         <v>36</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M16" s="17" t="s">
         <v>14</v>
@@ -2284,17 +2271,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <f>B18+2</f>
         <v>22</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>39</v>
@@ -2307,13 +2293,13 @@
         <v>36</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M17" s="18" t="s">
         <v>22</v>
@@ -2349,10 +2335,10 @@
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M18" s="18" t="s">
         <v>17</v>
@@ -2373,7 +2359,7 @@
         <v>46</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>39</v>
@@ -2386,13 +2372,13 @@
         <v>36</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M19" s="18" t="s">
         <v>20</v>
@@ -2410,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>39</v>
@@ -2427,10 +2413,10 @@
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>16</v>
@@ -2448,10 +2434,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>39</v>
@@ -2464,13 +2450,13 @@
         <v>36</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>14</v>
@@ -2496,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>10</v>
@@ -2513,10 +2499,10 @@
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M22" s="18" t="s">
         <v>18</v>
@@ -2541,13 +2527,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2557,16 +2543,16 @@
         <v>36</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2588,10 +2574,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>39</v>
@@ -2605,13 +2591,13 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2633,13 +2619,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2649,16 +2635,16 @@
         <v>36</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>49</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2680,13 +2666,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2697,10 +2683,10 @@
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M26" s="18" t="s">
         <v>25</v>
@@ -2725,10 +2711,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>40</v>
@@ -2742,10 +2728,10 @@
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>24</v>
@@ -2771,13 +2757,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2787,16 +2773,16 @@
         <v>36</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L28" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2818,10 +2804,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>39</v>
@@ -2834,13 +2820,13 @@
         <v>36</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M29" s="18" t="s">
         <v>26</v>
@@ -2858,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>39</v>
@@ -2875,13 +2861,13 @@
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2903,10 +2889,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>40</v>
@@ -2920,10 +2906,10 @@
       </c>
       <c r="J31" s="23"/>
       <c r="K31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M31" s="18" t="s">
         <v>27</v>
@@ -2948,13 +2934,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2965,13 +2951,13 @@
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2985,13 +2971,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -3002,13 +2988,13 @@
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3022,13 +3008,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -3039,10 +3025,10 @@
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M34" s="18" t="s">
         <v>12</v>
@@ -3059,13 +3045,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -3076,13 +3062,13 @@
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3096,13 +3082,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -3113,13 +3099,13 @@
       </c>
       <c r="J36" s="23"/>
       <c r="K36" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3133,13 +3119,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -3149,16 +3135,16 @@
         <v>38</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3172,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>44</v>
@@ -3187,13 +3173,13 @@
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3207,13 +3193,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="5">
@@ -3223,16 +3209,16 @@
         <v>38</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L39" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3246,13 +3232,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3263,13 +3249,13 @@
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L40" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3283,13 +3269,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="5">
@@ -3300,10 +3286,10 @@
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M41" s="18" t="s">
         <v>13</v>
@@ -3320,13 +3306,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="5">
@@ -3337,13 +3323,13 @@
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3357,10 +3343,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -3372,13 +3358,13 @@
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3392,13 +3378,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="5">
@@ -3409,13 +3395,13 @@
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3430,10 +3416,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -3445,13 +3431,13 @@
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3465,10 +3451,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3480,13 +3466,13 @@
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L46" s="21" t="s">
         <v>50</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3500,13 +3486,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="5">
@@ -3517,13 +3503,13 @@
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3538,13 +3524,13 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="5">
@@ -3555,10 +3541,10 @@
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M48" s="18" t="s">
         <v>11</v>
@@ -3575,13 +3561,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="5">
@@ -3592,13 +3578,13 @@
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3612,13 +3598,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="5">
@@ -3629,13 +3615,13 @@
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M50" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="L50" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="M50" s="18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3649,10 +3635,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -3665,7 +3651,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>35</v>
@@ -3682,13 +3668,13 @@
         <v>2</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
@@ -3699,13 +3685,13 @@
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3719,13 +3705,13 @@
         <v>2</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="5">
@@ -3736,13 +3722,13 @@
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M53" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3756,13 +3742,13 @@
         <v>2</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="5">
@@ -3773,13 +3759,13 @@
       </c>
       <c r="J54" s="23"/>
       <c r="K54" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L54" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3793,13 +3779,13 @@
         <v>2</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="5">
@@ -3810,13 +3796,13 @@
       </c>
       <c r="J55" s="23"/>
       <c r="K55" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L55" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3830,13 +3816,13 @@
         <v>2</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="5">
@@ -3847,13 +3833,13 @@
       </c>
       <c r="J56" s="23"/>
       <c r="K56" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/fish3d_map_config.xlsx
+++ b/config_aomi/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="297">
   <si>
     <t>line|行号</t>
   </si>
@@ -74,15 +74,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>出生开始头顶就有一小团火苗，因此也让他无时无刻焦急不安。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>冰冷的外表，不喜欢接触其他人，是个难以靠近的家伙。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>脾气暴躁，风风火火，一旦生气不计后果，从来不会顾及身边有谁。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1103,7 +1095,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>80倍</t>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生开始头顶就有一小团火苗，因此也让他无时无刻焦急不安。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾气暴躁，风风火火，一旦生气不计后果，从来不会顾及身边有谁。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1607,10 +1611,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1623,7 +1627,7 @@
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.75" style="24" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="74.125" style="16" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
@@ -1644,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1653,23 +1657,23 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>6</v>
@@ -1686,30 +1690,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="5">
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1724,30 +1728,30 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="5">
         <v>8</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" s="2"/>
     </row>
@@ -1762,32 +1766,32 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="5">
         <v>8</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1802,32 +1806,32 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="5">
         <v>5</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -1842,32 +1846,32 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="5">
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" s="2"/>
     </row>
@@ -1882,32 +1886,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="5">
         <v>5</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1922,29 +1926,29 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>14</v>
@@ -1962,30 +1966,30 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
         <v>5</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -2001,32 +2005,32 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
         <v>5</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2041,27 +2045,27 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
         <v>5</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>15</v>
@@ -2079,30 +2083,30 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5">
         <v>4</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2118,32 +2122,32 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="5">
         <v>5</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2159,30 +2163,30 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="5">
         <v>5</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2197,32 +2201,32 @@
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="5">
         <v>4</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2237,29 +2241,29 @@
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
         <v>4</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M16" s="17" t="s">
         <v>14</v>
@@ -2277,32 +2281,32 @@
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="5">
         <v>3</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="2"/>
@@ -2318,30 +2322,30 @@
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="5">
         <v>3</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2356,32 +2360,32 @@
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="5">
         <v>3</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2396,30 +2400,30 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="5">
         <v>3</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="11" t="s">
-        <v>62</v>
+        <v>294</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -2434,29 +2438,29 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="5">
         <v>2</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>14</v>
@@ -2482,30 +2486,30 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
         <v>2</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -2527,32 +2531,32 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <v>2</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2574,30 +2578,30 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
         <v>3</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2619,32 +2623,32 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
         <v>3</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2666,30 +2670,30 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
         <v>3</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2711,30 +2715,30 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="5">
         <v>3</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="7"/>
@@ -2757,32 +2761,32 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
         <v>2</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L28" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2804,32 +2808,32 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="5">
         <v>3</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -2844,30 +2848,30 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="5">
         <v>3</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2889,30 +2893,30 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
         <v>3</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J31" s="23"/>
       <c r="K31" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2934,30 +2938,30 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
         <v>3</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2971,30 +2975,30 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
         <v>3</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3008,27 +3012,27 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
         <v>2</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M34" s="18" t="s">
         <v>12</v>
@@ -3045,30 +3049,30 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
         <v>3</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3082,30 +3086,30 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
         <v>3</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J36" s="23"/>
       <c r="K36" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3119,32 +3123,32 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
         <v>3</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3158,10 +3162,10 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -3169,17 +3173,17 @@
         <v>3</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3193,32 +3197,32 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="5">
         <v>0.5</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L39" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3232,30 +3236,30 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
         <v>3</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L40" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3269,27 +3273,27 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="5">
         <v>0.5</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M41" s="18" t="s">
         <v>13</v>
@@ -3306,30 +3310,30 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="5">
         <v>2</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3343,10 +3347,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -3354,17 +3358,17 @@
         <v>3</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3378,30 +3382,30 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="5">
         <v>1.5</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3416,10 +3420,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -3427,17 +3431,17 @@
         <v>1</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3451,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3462,17 +3466,17 @@
         <v>1</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3486,30 +3490,30 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="5">
         <v>2</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3524,27 +3528,27 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="5">
         <v>1</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M48" s="18" t="s">
         <v>11</v>
@@ -3561,30 +3565,30 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="5">
         <v>1</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3598,30 +3602,30 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="5">
         <v>3</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L50" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3635,10 +3639,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -3646,15 +3650,15 @@
         <v>2</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J51" s="23"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3668,30 +3672,30 @@
         <v>2</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
         <v>2</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3705,30 +3709,30 @@
         <v>2</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="5">
         <v>2</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M53" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3742,30 +3746,30 @@
         <v>2</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="5">
         <v>2</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J54" s="23"/>
       <c r="K54" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L54" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3779,30 +3783,30 @@
         <v>2</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="5">
         <v>2</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J55" s="23"/>
       <c r="K55" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L55" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3816,30 +3820,30 @@
         <v>2</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="5">
         <v>2</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J56" s="23"/>
       <c r="K56" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/fish3d_map_config.xlsx
+++ b/config_aomi/fish3d_map_config.xlsx
@@ -1099,15 +1099,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>100~120奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>出生开始头顶就有一小团火苗，因此也让他无时无刻焦急不安。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>脾气暴躁，风风火火，一旦生气不计后果，从来不会顾及身边有谁。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1614,7 +1614,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2417,13 +2417,13 @@
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L20" s="26" t="s">
         <v>153</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -2509,7 +2509,7 @@
         <v>155</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>

--- a/config_aomi/fish3d_map_config.xlsx
+++ b/config_aomi/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="304">
   <si>
     <t>line|行号</t>
   </si>
@@ -1108,6 +1108,34 @@
   </si>
   <si>
     <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1609,12 +1637,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3846,6 +3874,43 @@
         <v>190</v>
       </c>
     </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="5">
+        <v>4</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J57" s="23"/>
+      <c r="K57" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
